--- a/テスト観点整理.xlsx
+++ b/テスト観点整理.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydrive\基シス1G\DX推進\BPS\テスト関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2071F3-C3EF-4C9E-B490-84CDA8AF5F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A52F31-C4E3-486C-A054-22CA9A2B0D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{D9F7F1C0-3CD0-4DA2-AAB7-FE378B40E3F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{D9F7F1C0-3CD0-4DA2-AAB7-FE378B40E3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト観点整理（正常系）" sheetId="1" r:id="rId1"/>
-    <sheet name="データ項目" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="データ項目一覧" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="177">
   <si>
     <t>stepNo.</t>
     <phoneticPr fontId="1"/>
@@ -751,33 +750,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ項目No.</t>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Concur</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>活文</t>
     <rPh sb="0" eb="2">
       <t>カツブン</t>
@@ -785,16 +757,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>請求書情報</t>
-    <rPh sb="0" eb="3">
-      <t>セイキュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>明細情報</t>
     <rPh sb="0" eb="4">
       <t>メイサイジョウホウ</t>
@@ -827,13 +789,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="3">
-      <t>コウモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>請求書名（伝票摘要）</t>
     <rPh sb="0" eb="4">
       <t>セイキュウショメイ</t>
@@ -1180,13 +1135,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フィールド名</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>予実No.（請求書キー）</t>
   </si>
   <si>
@@ -1364,6 +1312,75 @@
   <si>
     <t>Percentage</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ項目No</t>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求書情報（必須）</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明細情報（必須）</t>
+    <rPh sb="0" eb="4">
+      <t>メイサイジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業報告書・納品書</t>
+  </si>
+  <si>
+    <t>その他添付資料（按分表等）①</t>
+  </si>
+  <si>
+    <t>その他添付資料②</t>
+  </si>
+  <si>
+    <t>その他添付資料③</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求番号（登録時発番）</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハツバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1416,12 +1433,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1740,7 +1760,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1802,7 +1824,7 @@
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A27" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A11" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2168,498 +2190,1547 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06D53F-D7D7-4116-B437-6746345C3123}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAC8549-1E0A-40B7-A2C3-06A8DC9C4541}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:BO14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BG6" sqref="BG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.08203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.08203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" t="s">
+        <v>169</v>
+      </c>
+      <c r="W1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AP1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" t="s">
+        <v>136</v>
+      </c>
+      <c r="W2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" t="s">
+        <v>132</v>
+      </c>
+      <c r="S3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" t="s">
+        <v>135</v>
+      </c>
+      <c r="V3" t="s">
+        <v>174</v>
+      </c>
+      <c r="W3" t="s">
+        <v>137</v>
+      </c>
+      <c r="X3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BK4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BN9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BO9" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BK10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BN12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAC8549-1E0A-40B7-A2C3-06A8DC9C4541}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="C1:BJ3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="3:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="3:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T2" t="s">
-        <v>82</v>
-      </c>
-      <c r="U2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="3:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O3" t="s">
-        <v>136</v>
-      </c>
-      <c r="P3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>138</v>
-      </c>
-      <c r="R3" t="s">
-        <v>139</v>
-      </c>
-      <c r="S3" t="s">
-        <v>140</v>
-      </c>
-      <c r="T3" t="s">
-        <v>141</v>
-      </c>
-      <c r="U3" t="s">
-        <v>142</v>
-      </c>
-      <c r="V3" t="s">
-        <v>143</v>
-      </c>
-      <c r="W3" t="s">
-        <v>144</v>
-      </c>
-      <c r="X3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>136</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>173</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>175</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
